--- a/Assets/Data/Material_Data.xlsx
+++ b/Assets/Data/Material_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,26 @@
   </si>
   <si>
     <t>_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라스틱 고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다에 떠있는 쓰레기를 건져 올릴 때 이 놀라온 아이템을 사용하세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뗏목을 넓힐때 유용합니다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -858,6 +878,55 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/Material_Data.xlsx
+++ b/Assets/Data/Material_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,26 +203,6 @@
   </si>
   <si>
     <t>_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라스틱 고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바다에 떠있는 쓰레기를 건져 올릴 때 이 놀라온 아이템을 사용하세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">뗏목을 넓힐때 유용합니다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+      <selection activeCell="A13" sqref="A13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,55 +858,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/Material_Data.xlsx
+++ b/Assets/Data/Material_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Raft_tracing\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\Github\Raft_tracing\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -174,18 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_img_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_name_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_handAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,24 +192,33 @@
   <si>
     <t>_description</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_name</t>
+  </si>
+  <si>
+    <t>name_kr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -536,43 +533,43 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>101</v>
       </c>
@@ -624,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>102</v>
       </c>
@@ -650,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>103</v>
       </c>
@@ -676,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>104</v>
       </c>
@@ -702,7 +699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>105</v>
       </c>
@@ -728,7 +725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>106</v>
       </c>
@@ -754,7 +751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>107</v>
       </c>
@@ -780,7 +777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>108</v>
       </c>
@@ -806,7 +803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>109</v>
       </c>
@@ -832,7 +829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>110</v>
       </c>
